--- a/Input/trump_approval.xlsx
+++ b/Input/trump_approval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="207">
   <si>
     <t>approve_trump</t>
   </si>
@@ -31,6 +31,9 @@
     <t>ed</t>
   </si>
   <si>
+    <t>president</t>
+  </si>
+  <si>
     <t>Jan 2 2019</t>
   </si>
   <si>
@@ -629,6 +632,9 @@
   </si>
   <si>
     <t>Jan 29 2017</t>
+  </si>
+  <si>
+    <t>Trump</t>
   </si>
 </sst>
 </file>
@@ -986,13 +992,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,8 +1014,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>37</v>
       </c>
@@ -1020,13 +1029,16 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>39</v>
       </c>
@@ -1037,13 +1049,16 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>38</v>
       </c>
@@ -1054,13 +1069,16 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>40</v>
       </c>
@@ -1071,13 +1089,16 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1088,13 +1109,16 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>38</v>
       </c>
@@ -1105,13 +1129,16 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>43</v>
       </c>
@@ -1122,13 +1149,16 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>38</v>
       </c>
@@ -1139,13 +1169,16 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>113</v>
+      </c>
+      <c r="F9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>40</v>
       </c>
@@ -1156,13 +1189,16 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>114</v>
+      </c>
+      <c r="F10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>40</v>
       </c>
@@ -1173,13 +1209,16 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>44</v>
       </c>
@@ -1190,13 +1229,16 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>44</v>
       </c>
@@ -1207,13 +1249,16 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>43</v>
       </c>
@@ -1224,13 +1269,16 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="F14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>42</v>
       </c>
@@ -1241,13 +1289,16 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>119</v>
+      </c>
+      <c r="F15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>40</v>
       </c>
@@ -1258,13 +1309,16 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>38</v>
       </c>
@@ -1275,13 +1329,16 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>40</v>
       </c>
@@ -1292,13 +1349,16 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>41</v>
       </c>
@@ -1309,13 +1369,16 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>41</v>
       </c>
@@ -1326,13 +1389,16 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>42</v>
       </c>
@@ -1343,13 +1409,16 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>39</v>
       </c>
@@ -1360,13 +1429,16 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>41</v>
       </c>
@@ -1377,13 +1449,16 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>40</v>
       </c>
@@ -1394,13 +1469,16 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>42</v>
       </c>
@@ -1411,13 +1489,16 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>43</v>
       </c>
@@ -1428,13 +1509,16 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>41</v>
       </c>
@@ -1445,13 +1529,16 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>131</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>42</v>
       </c>
@@ -1462,13 +1549,16 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>132</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>41</v>
       </c>
@@ -1479,13 +1569,16 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>133</v>
+      </c>
+      <c r="F29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>45</v>
       </c>
@@ -1496,13 +1589,16 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>42</v>
       </c>
@@ -1513,13 +1609,16 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>135</v>
+      </c>
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>41</v>
       </c>
@@ -1530,13 +1629,16 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>136</v>
+      </c>
+      <c r="F32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>40</v>
       </c>
@@ -1547,13 +1649,16 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>137</v>
+      </c>
+      <c r="F33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>42</v>
       </c>
@@ -1564,13 +1669,16 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>43</v>
       </c>
@@ -1581,13 +1689,16 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>139</v>
+      </c>
+      <c r="F35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>42</v>
       </c>
@@ -1598,13 +1709,16 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>140</v>
+      </c>
+      <c r="F36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>42</v>
       </c>
@@ -1615,13 +1729,16 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>141</v>
+      </c>
+      <c r="F37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1632,13 +1749,16 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>142</v>
+      </c>
+      <c r="F38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1649,13 +1769,16 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>143</v>
+      </c>
+      <c r="F39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>41</v>
       </c>
@@ -1666,13 +1789,16 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>144</v>
+      </c>
+      <c r="F40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1683,13 +1809,16 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>145</v>
+      </c>
+      <c r="F41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1700,13 +1829,16 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>146</v>
+      </c>
+      <c r="F42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1717,13 +1849,16 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="F43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>39</v>
       </c>
@@ -1734,13 +1869,16 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>148</v>
+      </c>
+      <c r="F44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>39</v>
       </c>
@@ -1751,13 +1889,16 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>149</v>
+      </c>
+      <c r="F45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>39</v>
       </c>
@@ -1768,13 +1909,16 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>150</v>
+      </c>
+      <c r="F46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>37</v>
       </c>
@@ -1785,13 +1929,16 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>151</v>
+      </c>
+      <c r="F47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>40</v>
       </c>
@@ -1802,13 +1949,16 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>152</v>
+      </c>
+      <c r="F48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>40</v>
       </c>
@@ -1819,13 +1969,16 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>153</v>
+      </c>
+      <c r="F49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>38</v>
       </c>
@@ -1836,13 +1989,16 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>154</v>
+      </c>
+      <c r="F50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>36</v>
       </c>
@@ -1853,13 +2009,16 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>155</v>
+      </c>
+      <c r="F51" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>38</v>
       </c>
@@ -1870,13 +2029,16 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>156</v>
+      </c>
+      <c r="F52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>37</v>
       </c>
@@ -1887,13 +2049,16 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>157</v>
+      </c>
+      <c r="F53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>39</v>
       </c>
@@ -1904,13 +2069,16 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="F54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>37</v>
       </c>
@@ -1921,13 +2089,16 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>159</v>
+      </c>
+      <c r="F55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>35</v>
       </c>
@@ -1938,13 +2109,16 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>160</v>
+      </c>
+      <c r="F56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>36</v>
       </c>
@@ -1955,13 +2129,16 @@
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>161</v>
+      </c>
+      <c r="F57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>35</v>
       </c>
@@ -1972,13 +2149,16 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>162</v>
+      </c>
+      <c r="F58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>37</v>
       </c>
@@ -1989,13 +2169,16 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>163</v>
+      </c>
+      <c r="F59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>38</v>
       </c>
@@ -2006,13 +2189,16 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>164</v>
+      </c>
+      <c r="F60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>38</v>
       </c>
@@ -2023,13 +2209,16 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>165</v>
+      </c>
+      <c r="F61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>38</v>
       </c>
@@ -2040,13 +2229,16 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>166</v>
+      </c>
+      <c r="F62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>35</v>
       </c>
@@ -2057,13 +2249,16 @@
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>167</v>
+      </c>
+      <c r="F63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>36</v>
       </c>
@@ -2074,13 +2269,16 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>168</v>
+      </c>
+      <c r="F64" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>37</v>
       </c>
@@ -2091,13 +2289,16 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>169</v>
+      </c>
+      <c r="F65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>38</v>
       </c>
@@ -2108,13 +2309,16 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>170</v>
+      </c>
+      <c r="F66" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>37</v>
       </c>
@@ -2125,13 +2329,16 @@
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>171</v>
+      </c>
+      <c r="F67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>38</v>
       </c>
@@ -2142,13 +2349,16 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>172</v>
+      </c>
+      <c r="F68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>38</v>
       </c>
@@ -2159,13 +2369,16 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E69" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>173</v>
+      </c>
+      <c r="F69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>37</v>
       </c>
@@ -2176,13 +2389,16 @@
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>174</v>
+      </c>
+      <c r="F70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>36</v>
       </c>
@@ -2193,13 +2409,16 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>175</v>
+      </c>
+      <c r="F71" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>35</v>
       </c>
@@ -2210,13 +2429,16 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>176</v>
+      </c>
+      <c r="F72" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>37</v>
       </c>
@@ -2227,13 +2449,16 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>177</v>
+      </c>
+      <c r="F73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>36</v>
       </c>
@@ -2244,13 +2469,16 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>178</v>
+      </c>
+      <c r="F74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>37</v>
       </c>
@@ -2261,13 +2489,16 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>179</v>
+      </c>
+      <c r="F75" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>38</v>
       </c>
@@ -2278,13 +2509,16 @@
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>180</v>
+      </c>
+      <c r="F76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>37</v>
       </c>
@@ -2295,13 +2529,16 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>181</v>
+      </c>
+      <c r="F77" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>39</v>
       </c>
@@ -2312,13 +2549,16 @@
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F78" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>38</v>
       </c>
@@ -2329,13 +2569,16 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>183</v>
+      </c>
+      <c r="F79" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>39</v>
       </c>
@@ -2346,13 +2589,16 @@
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E80" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>184</v>
+      </c>
+      <c r="F80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>39</v>
       </c>
@@ -2363,13 +2609,16 @@
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>185</v>
+      </c>
+      <c r="F81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>38</v>
       </c>
@@ -2380,13 +2629,16 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>186</v>
+      </c>
+      <c r="F82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>37</v>
       </c>
@@ -2397,13 +2649,16 @@
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F83" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>38</v>
       </c>
@@ -2414,13 +2669,16 @@
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="F84" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>41</v>
       </c>
@@ -2431,13 +2689,16 @@
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F85" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>38</v>
       </c>
@@ -2448,13 +2709,16 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>190</v>
+      </c>
+      <c r="F86" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>38</v>
       </c>
@@ -2465,13 +2729,16 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E87" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>191</v>
+      </c>
+      <c r="F87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>42</v>
       </c>
@@ -2482,13 +2749,16 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E88" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>192</v>
+      </c>
+      <c r="F88" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>41</v>
       </c>
@@ -2499,13 +2769,16 @@
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>193</v>
+      </c>
+      <c r="F89" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>41</v>
       </c>
@@ -2516,13 +2789,16 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>194</v>
+      </c>
+      <c r="F90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>40</v>
       </c>
@@ -2533,13 +2809,16 @@
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E91" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>195</v>
+      </c>
+      <c r="F91" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>40</v>
       </c>
@@ -2550,13 +2829,16 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>196</v>
+      </c>
+      <c r="F92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>38</v>
       </c>
@@ -2567,13 +2849,16 @@
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>197</v>
+      </c>
+      <c r="F93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>39</v>
       </c>
@@ -2584,13 +2869,16 @@
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F94" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>40</v>
       </c>
@@ -2601,13 +2889,16 @@
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>199</v>
+      </c>
+      <c r="F95" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>42</v>
       </c>
@@ -2618,13 +2909,16 @@
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>200</v>
+      </c>
+      <c r="F96" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>43</v>
       </c>
@@ -2635,13 +2929,16 @@
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>201</v>
+      </c>
+      <c r="F97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>42</v>
       </c>
@@ -2652,13 +2949,16 @@
         <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="F98" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>40</v>
       </c>
@@ -2669,13 +2969,16 @@
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E99" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>203</v>
+      </c>
+      <c r="F99" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>41</v>
       </c>
@@ -2686,13 +2989,16 @@
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E100" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>204</v>
+      </c>
+      <c r="F100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>45</v>
       </c>
@@ -2703,10 +3009,13 @@
         <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E101" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="F101" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
